--- a/evaluation/results/isolation_forest/augmented/noise_2/split_5/test_95_5/evaluation_metrics.xlsx
+++ b/evaluation/results/isolation_forest/augmented/noise_2/split_5/test_95_5/evaluation_metrics.xlsx
@@ -500,37 +500,37 @@
         <v>12</v>
       </c>
       <c r="B2">
-        <v>0.9288256227758007</v>
+        <v>0.2419928825622776</v>
       </c>
       <c r="C2">
-        <v>0.35</v>
+        <v>0.05973451327433629</v>
       </c>
       <c r="D2">
-        <v>0.5</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="E2">
-        <v>0.4117647058823529</v>
+        <v>0.1125</v>
       </c>
       <c r="F2">
-        <v>0.4605263157894737</v>
+        <v>0.2393617021276596</v>
       </c>
       <c r="G2">
-        <v>0.4918918918918919</v>
+        <v>0.609375</v>
       </c>
       <c r="H2">
-        <v>0.7256554307116104</v>
+        <v>0.7792602996254683</v>
       </c>
       <c r="I2">
-        <v>14</v>
+        <v>27</v>
       </c>
       <c r="J2">
-        <v>26</v>
+        <v>425</v>
       </c>
       <c r="K2">
-        <v>508</v>
+        <v>109</v>
       </c>
       <c r="L2">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -565,13 +565,13 @@
         <v>17</v>
       </c>
       <c r="B2">
-        <v>0.9731800766283525</v>
+        <v>0.990909090909091</v>
       </c>
       <c r="C2">
-        <v>0.951310861423221</v>
+        <v>0.2041198501872659</v>
       </c>
       <c r="D2">
-        <v>0.9621212121212122</v>
+        <v>0.3385093167701863</v>
       </c>
       <c r="E2">
         <v>534</v>
@@ -582,13 +582,13 @@
         <v>18</v>
       </c>
       <c r="B3">
-        <v>0.35</v>
+        <v>0.05973451327433629</v>
       </c>
       <c r="C3">
-        <v>0.5</v>
+        <v>0.9642857142857143</v>
       </c>
       <c r="D3">
-        <v>0.4117647058823529</v>
+        <v>0.1125</v>
       </c>
       <c r="E3">
         <v>28</v>
@@ -599,16 +599,16 @@
         <v>19</v>
       </c>
       <c r="B4">
-        <v>0.9288256227758007</v>
+        <v>0.2419928825622776</v>
       </c>
       <c r="C4">
-        <v>0.9288256227758007</v>
+        <v>0.2419928825622776</v>
       </c>
       <c r="D4">
-        <v>0.9288256227758007</v>
+        <v>0.2419928825622776</v>
       </c>
       <c r="E4">
-        <v>0.9288256227758007</v>
+        <v>0.2419928825622776</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -616,13 +616,13 @@
         <v>20</v>
       </c>
       <c r="B5">
-        <v>0.6615900383141762</v>
+        <v>0.5253218020917136</v>
       </c>
       <c r="C5">
-        <v>0.7256554307116105</v>
+        <v>0.5842027822364901</v>
       </c>
       <c r="D5">
-        <v>0.6869429590017826</v>
+        <v>0.2255046583850931</v>
       </c>
       <c r="E5">
         <v>562</v>
@@ -633,13 +633,13 @@
         <v>21</v>
       </c>
       <c r="B6">
-        <v>0.9421319589315662</v>
+        <v>0.9445160514539787</v>
       </c>
       <c r="C6">
-        <v>0.9288256227758007</v>
+        <v>0.2419928825622776</v>
       </c>
       <c r="D6">
-        <v>0.9347013150132262</v>
+        <v>0.327249066112597</v>
       </c>
       <c r="E6">
         <v>562</v>
@@ -671,10 +671,10 @@
         <v>24</v>
       </c>
       <c r="B2">
-        <v>508</v>
+        <v>109</v>
       </c>
       <c r="C2">
-        <v>26</v>
+        <v>425</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -682,10 +682,10 @@
         <v>25</v>
       </c>
       <c r="B3">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
